--- a/data/trans_bre/P1435_2011_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1435_2011_2023-Edad-trans_bre.xlsx
@@ -609,14 +609,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4708223737257462</v>
+        <v>0.4694228306785582</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4979770377542532</v>
+        <v>0.4014352880500562</v>
       </c>
       <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="n">
-        <v>-0.7410765317201006</v>
+        <v>-0.3250793183906045</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.305329370245973</v>
+        <v>3.186315656166558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.914907680098366</v>
+        <v>8.10531682175742</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="inlineStr"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.043708304848034</v>
+        <v>1.120733308979635</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.755749284295808</v>
+        <v>1.733292243295355</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.054246862150823</v>
+        <v>0.9169095770472917</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4838884735598484</v>
+        <v>0.4853802389971749</v>
       </c>
     </row>
     <row r="9">
@@ -687,14 +687,14 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.904226516769794</v>
+        <v>3.844746645072831</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.090570391162671</v>
+        <v>5.917061741987068</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>20.11382256284852</v>
+        <v>21.75388997144214</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +712,7 @@
         <v>2.849710055749009</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>5.137668508527593</v>
+        <v>5.137668508527594</v>
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4.604002684478845</v>
+        <v>4.604002684478844</v>
       </c>
     </row>
     <row r="11">
@@ -731,14 +731,14 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.801961577867383</v>
+        <v>1.764471576877463</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.417255828338365</v>
+        <v>3.344909962236114</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>1.600990625272637</v>
+        <v>1.460668824742455</v>
       </c>
     </row>
     <row r="12">
@@ -749,14 +749,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.37179753896493</v>
+        <v>4.225493140649733</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.076682921965872</v>
+        <v>7.156262625702076</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>13.47653823043654</v>
+        <v>14.35452412317263</v>
       </c>
     </row>
     <row r="13">
@@ -774,13 +774,13 @@
         <v>5.307312193063396</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.989033882158746</v>
+        <v>6.989033882158748</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>8.192654044264231</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>3.036217194812601</v>
+        <v>3.036217194812602</v>
       </c>
     </row>
     <row r="14">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.551067539687262</v>
+        <v>3.349435291795166</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.77993674696775</v>
+        <v>5.050495845685572</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2.336321297855253</v>
+        <v>2.201926482551106</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1.282118778284479</v>
+        <v>1.448234384458189</v>
       </c>
     </row>
     <row r="15">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.845671909595836</v>
+        <v>7.537626903698722</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.940057740726596</v>
+        <v>8.912286431566423</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34.86836798182637</v>
+        <v>34.33537623606397</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.947571082369064</v>
+        <v>6.388906382187726</v>
       </c>
     </row>
     <row r="16">
@@ -855,16 +855,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.075433667355955</v>
+        <v>4.312893818475001</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.09108007466243</v>
+        <v>11.09671417640608</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.764890092821959</v>
+        <v>2.634224992192987</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>3.714689882676778</v>
+        <v>3.682129239193213</v>
       </c>
     </row>
     <row r="18">
@@ -875,16 +875,14 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.766354911632984</v>
+        <v>9.786231267211305</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.28872276678269</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>34.94226308102092</v>
-      </c>
+        <v>16.03482392307722</v>
+      </c>
+      <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>14.02792452104118</v>
+        <v>14.42584037819325</v>
       </c>
     </row>
     <row r="19">
@@ -902,7 +900,7 @@
         <v>3.072156489384636</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>9.430590578512092</v>
+        <v>9.43059057851209</v>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
@@ -921,14 +919,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.660594022630308</v>
+        <v>1.671481019336653</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.825833022913162</v>
+        <v>6.866495040697072</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>1.708584121185126</v>
+        <v>1.663847505537129</v>
       </c>
     </row>
     <row r="21">
@@ -939,14 +937,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.537636628868361</v>
+        <v>5.06147497667578</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.88122035233343</v>
+        <v>12.06018678196497</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>7.036858836388664</v>
+        <v>7.031164740303925</v>
       </c>
     </row>
     <row r="22">
@@ -964,13 +962,13 @@
         <v>0.4510828876396348</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.997860801663419</v>
+        <v>6.997860801663417</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>1.061526536238948</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4.398003267826012</v>
+        <v>4.39800326782601</v>
       </c>
     </row>
     <row r="23">
@@ -981,14 +979,14 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8151242357274</v>
+        <v>-0.8339284088728645</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.713825659406715</v>
+        <v>4.672733387365429</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>1.672684404423652</v>
+        <v>1.491000790575894</v>
       </c>
     </row>
     <row r="24">
@@ -999,14 +997,14 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.746741307426585</v>
+        <v>1.90681527526564</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.303894071754346</v>
+        <v>9.306573028116114</v>
       </c>
       <c r="E24" s="6" t="inlineStr"/>
       <c r="F24" s="6" t="n">
-        <v>11.05088796599163</v>
+        <v>11.34410755026081</v>
       </c>
     </row>
     <row r="25">
@@ -1041,16 +1039,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.668742439141641</v>
+        <v>2.529346697318162</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.368526619180908</v>
+        <v>6.348960042465214</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5.100598689615818</v>
+        <v>5.039374608617993</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3.035456442489962</v>
+        <v>2.997770141014504</v>
       </c>
     </row>
     <row r="27">
@@ -1061,16 +1059,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.010120808495263</v>
+        <v>3.942646945229833</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.291306058003597</v>
+        <v>8.148459837820536</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22.07076398978082</v>
+        <v>20.62579090336838</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>6.252297723590829</v>
+        <v>5.932814654294209</v>
       </c>
     </row>
     <row r="28">
